--- a/RTR route schedule.xlsx
+++ b/RTR route schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulcox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AEF9F9-338A-794C-989C-79AD10920ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05768594-75E8-644B-B1AA-F6417D28D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{4834604E-8AB4-4512-8966-A2E345F1CB23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Group by 8k Route" guid="{A3DE8802-0C4D-4111-B18C-B1D760A0D2A9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{4834604E-8AB4-4512-8966-A2E345F1CB23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="144">
   <si>
     <t>Week</t>
   </si>
@@ -462,6 +462,30 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>https://www.strava.com/routes/3384187598366849262</t>
+  </si>
+  <si>
+    <t>https://www.strava.com/routes/3383818370492484284</t>
+  </si>
+  <si>
+    <t>Withins res back via banana path</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/WRbQEkg6JrJjxrqq6</t>
+  </si>
+  <si>
+    <t>Crompton Lodges</t>
+  </si>
+  <si>
+    <t>Crompton Lodges and canal</t>
+  </si>
+  <si>
+    <t>https://www.strava.com/routes/3388939377049776708</t>
+  </si>
+  <si>
+    <t>https://www.strava.com/routes/3388940285915325570</t>
   </si>
 </sst>
 </file>
@@ -471,7 +495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -586,6 +610,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -854,10 +886,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1001,8 +1034,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1410,9 +1445,9 @@
   </sheetPr>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1600,14 +1635,14 @@
       <c r="G6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>96</v>
+      <c r="H6" s="49" t="s">
+        <v>136</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>97</v>
+      <c r="J6" s="49" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1628,16 +1663,16 @@
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="20" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1656,16 +1691,16 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="20" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>63</v>
+        <v>138</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1711,12 +1746,24 @@
       <c r="D10" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="20"/>
+      <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
@@ -1725,9 +1772,7 @@
       <c r="B11" s="21">
         <v>45904</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="32" t="s">
         <v>123</v>
       </c>
@@ -3646,13 +3691,13 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{A3DE8802-0C4D-4111-B18C-B1D760A0D2A9}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:M53" xr:uid="{93C19DA6-A206-EE4D-961A-3396494EDE23}"/>
+    </customSheetView>
     <customSheetView guid="{4834604E-8AB4-4512-8966-A2E345F1CB23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M53" xr:uid="{3C582696-13DA-D04B-9FA2-F3EE329B51CA}"/>
-    </customSheetView>
-    <customSheetView guid="{A3DE8802-0C4D-4111-B18C-B1D760A0D2A9}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M53" xr:uid="{8E92139E-5CE7-9443-A0B1-4478BD57EA3F}"/>
+      <autoFilter ref="A1:M53" xr:uid="{F2EBA954-5191-CE45-ACC5-229114E244B0}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -3664,144 +3709,144 @@
     <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="H5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="J5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="J7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="J22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="H25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="H26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="J26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="H29" r:id="rId49" xr:uid="{E5F8D20D-EB0E-A040-9301-451EEBA6A55E}"/>
-    <hyperlink ref="J29" r:id="rId50" xr:uid="{B5D977D1-3241-184E-B459-757E17DC4DB1}"/>
-    <hyperlink ref="H30" r:id="rId51" xr:uid="{E23633FF-65E8-B749-BFA7-DCF84E078CE4}"/>
-    <hyperlink ref="J30" r:id="rId52" xr:uid="{A0F3AABA-BC37-B647-B440-F012602ED2DB}"/>
-    <hyperlink ref="H31" r:id="rId53" xr:uid="{1A5CB249-F714-9748-B92D-A05616A438E1}"/>
-    <hyperlink ref="J31" r:id="rId54" xr:uid="{42C9C207-F4ED-0245-91B1-C25CC7C44152}"/>
-    <hyperlink ref="H32" r:id="rId55" xr:uid="{C82D7159-9D3E-D444-B138-ECE63AE99721}"/>
-    <hyperlink ref="J32" r:id="rId56" xr:uid="{08775993-5ADD-1645-9A66-F496CA6B7A28}"/>
-    <hyperlink ref="H33" r:id="rId57" xr:uid="{593F3A8A-0AEB-504A-A4BB-665924FE18D8}"/>
-    <hyperlink ref="J33" r:id="rId58" xr:uid="{E5D6F428-A659-E048-9FDC-9F78A3B7B48D}"/>
-    <hyperlink ref="H34" r:id="rId59" xr:uid="{C76BE1CE-C653-7E4A-A3CA-DB0ED1C151B1}"/>
-    <hyperlink ref="J34" r:id="rId60" xr:uid="{27792CF5-37DE-1E4A-A05C-B14392618A69}"/>
-    <hyperlink ref="H35" r:id="rId61" xr:uid="{7A6086A5-7558-9941-A583-F0EB8294DBB1}"/>
-    <hyperlink ref="J35" r:id="rId62" xr:uid="{A0988048-7DFF-E945-BE05-E9106BF95B92}"/>
-    <hyperlink ref="H36" r:id="rId63" xr:uid="{8108EE16-B31E-F444-81D9-2B4A79E7175C}"/>
-    <hyperlink ref="J36" r:id="rId64" xr:uid="{B87AA8B1-8931-EA41-9937-140A18931AB5}"/>
-    <hyperlink ref="H37" r:id="rId65" xr:uid="{5BC82D23-1F71-AF45-89FB-D1ACFF4FC8B6}"/>
-    <hyperlink ref="J37" r:id="rId66" xr:uid="{8FDF43A8-0651-6041-B175-DDC630A9B906}"/>
-    <hyperlink ref="H38" r:id="rId67" xr:uid="{2B96EF4B-64DE-D848-B00A-EF825FFECDF2}"/>
-    <hyperlink ref="J38" r:id="rId68" xr:uid="{97696A61-8BC9-4D46-B269-73D40BAF3D35}"/>
-    <hyperlink ref="H39" r:id="rId69" xr:uid="{0F0327CE-3880-8545-A808-A2191AE5AF44}"/>
-    <hyperlink ref="J39" r:id="rId70" xr:uid="{977369CE-AC6A-BB4B-8022-8822B04F1635}"/>
-    <hyperlink ref="H40" r:id="rId71" xr:uid="{3C9B57FA-0D44-4D42-8949-A33F15925537}"/>
-    <hyperlink ref="J40" r:id="rId72" xr:uid="{20DC3E63-6890-7D40-9CFA-A76A52930112}"/>
-    <hyperlink ref="H41" r:id="rId73" xr:uid="{66DB3FE9-0E87-E642-8AA3-EC77FB29B727}"/>
-    <hyperlink ref="J41" r:id="rId74" xr:uid="{4435D93C-3FEE-754A-B15C-41E085563B6A}"/>
-    <hyperlink ref="H42" r:id="rId75" xr:uid="{1A0AE8B3-0C23-2D41-A8B2-5828A5F81BCF}"/>
-    <hyperlink ref="J42" r:id="rId76" xr:uid="{8360D496-8536-DE41-BF2A-7C7B6AC81189}"/>
-    <hyperlink ref="H43" r:id="rId77" xr:uid="{C05819D8-DEDF-A442-A7ED-C6322904231B}"/>
-    <hyperlink ref="J43" r:id="rId78" xr:uid="{E611B9D5-45EB-1A4A-AA78-F5794301BA8D}"/>
-    <hyperlink ref="H44" r:id="rId79" xr:uid="{F65F4782-946F-DB43-9E4A-47E5711B1BA3}"/>
-    <hyperlink ref="J44" r:id="rId80" xr:uid="{A1DBDF9A-9D85-2345-84EB-3E8FCE4EF05A}"/>
-    <hyperlink ref="H45" r:id="rId81" xr:uid="{9A9F2E1F-BC81-0E43-B4C3-485D2DDA9D4C}"/>
-    <hyperlink ref="J45" r:id="rId82" xr:uid="{6AB697FF-5F94-FE43-91B2-5A78D0102118}"/>
-    <hyperlink ref="H46" r:id="rId83" xr:uid="{8BDE2EF9-F386-7341-A357-86E3E5FD2EF9}"/>
-    <hyperlink ref="J46" r:id="rId84" xr:uid="{2847073B-A85F-AC4C-B957-EE14D213F633}"/>
-    <hyperlink ref="H47" r:id="rId85" xr:uid="{ACA1B80E-F171-DB4F-9FD5-6CD10FEE6204}"/>
-    <hyperlink ref="J47" r:id="rId86" xr:uid="{1C5AF245-A7B3-A547-96AB-7597B6C71A29}"/>
-    <hyperlink ref="H48" r:id="rId87" xr:uid="{21BDFC1E-7455-AB46-8AB0-100DAEC4DEEB}"/>
-    <hyperlink ref="J48" r:id="rId88" xr:uid="{498C59F7-F663-D94F-A767-2F30D430C4B4}"/>
-    <hyperlink ref="H49" r:id="rId89" xr:uid="{891D1943-15AC-804C-9DC0-DD742F5AD778}"/>
-    <hyperlink ref="J49" r:id="rId90" xr:uid="{B9EFC8CF-2FB6-F147-ADD0-D5E55EF83614}"/>
-    <hyperlink ref="H50" r:id="rId91" xr:uid="{CC74AF0B-DAAF-7345-AFAD-A36B8A146F09}"/>
-    <hyperlink ref="J50" r:id="rId92" xr:uid="{1A4A083A-056D-AB49-ADAA-89BC4FB14A33}"/>
-    <hyperlink ref="H51" r:id="rId93" xr:uid="{81CC28CF-BF11-EF45-A576-DEC5928ED439}"/>
-    <hyperlink ref="J51" r:id="rId94" xr:uid="{3FEF807D-650D-C54D-8B30-6D81B5DB562F}"/>
-    <hyperlink ref="H52" r:id="rId95" xr:uid="{A2F54672-5F72-774D-81F8-449FF6A8BD37}"/>
-    <hyperlink ref="J52" r:id="rId96" xr:uid="{4126D3EF-16F5-F244-96F8-B648BCE09616}"/>
-    <hyperlink ref="H53" r:id="rId97" xr:uid="{B5422E3E-E0E6-2549-B756-D87D83319F94}"/>
-    <hyperlink ref="J53" r:id="rId98" xr:uid="{BF1D94C6-BB65-A140-A516-32273E240800}"/>
-    <hyperlink ref="H54" r:id="rId99" xr:uid="{F861F128-B7B1-704C-803F-9CDC962DA7E2}"/>
-    <hyperlink ref="J54" r:id="rId100" xr:uid="{0551055D-53FE-724E-9A5B-EAA86A8E75ED}"/>
-    <hyperlink ref="H55" r:id="rId101" xr:uid="{0B5BC359-2057-4140-A984-2ABCBB2209B5}"/>
-    <hyperlink ref="J55" r:id="rId102" xr:uid="{699BAD10-6320-3141-BBA3-AC301BF3CC42}"/>
-    <hyperlink ref="H56" r:id="rId103" xr:uid="{C007D042-C228-C844-9E15-7FCA65633AD2}"/>
-    <hyperlink ref="J56" r:id="rId104" xr:uid="{F86A9BF8-AA2A-814B-811A-5A497BE9D68C}"/>
-    <hyperlink ref="H57" r:id="rId105" xr:uid="{17AE26F7-689A-364D-AC18-E4AE5FD42827}"/>
-    <hyperlink ref="J57" r:id="rId106" xr:uid="{1E0BE176-F764-0A47-8E22-14B27E03377A}"/>
-    <hyperlink ref="H58" r:id="rId107" xr:uid="{9DE861AB-AC36-DB43-926A-09E1B13F0509}"/>
-    <hyperlink ref="J58" r:id="rId108" xr:uid="{E84CA9D9-329C-6843-BF6A-B11C004C1396}"/>
-    <hyperlink ref="H59" r:id="rId109" xr:uid="{CE75FD48-5CA0-554D-8313-CED229A2797E}"/>
-    <hyperlink ref="J59" r:id="rId110" xr:uid="{FE1C4075-9293-3B45-9937-7770FB8C037A}"/>
-    <hyperlink ref="H60" r:id="rId111" xr:uid="{7D2ACD91-7A1D-224A-B773-56DD3D424A08}"/>
-    <hyperlink ref="J60" r:id="rId112" xr:uid="{6A86550A-0C93-894D-BC8C-E09CBF4473B6}"/>
-    <hyperlink ref="H61" r:id="rId113" xr:uid="{B96D75A5-270B-AF41-8AE0-EFF77354DFBC}"/>
-    <hyperlink ref="J61" r:id="rId114" xr:uid="{F45EE6D4-7E88-9442-A7B0-111954861FAE}"/>
-    <hyperlink ref="H63" r:id="rId115" xr:uid="{4315CF92-7B0D-1548-AC62-ACCAD16451ED}"/>
-    <hyperlink ref="J63" r:id="rId116" xr:uid="{427A5138-59DA-184A-A927-DBC2446ECB2C}"/>
-    <hyperlink ref="H64" r:id="rId117" xr:uid="{36AA59B1-671A-7141-ACD8-7D07AD201879}"/>
-    <hyperlink ref="J64" r:id="rId118" xr:uid="{CEAB4FB2-0B55-204A-96FE-CC2D64B5546D}"/>
-    <hyperlink ref="H65" r:id="rId119" xr:uid="{D8D18BBD-2450-8947-955A-21B9E3CEB389}"/>
-    <hyperlink ref="J65" r:id="rId120" xr:uid="{89B324E2-3691-8C43-A13F-E657F7ED8000}"/>
-    <hyperlink ref="H66" r:id="rId121" xr:uid="{409476E8-37F1-674F-B673-33F28A6518AF}"/>
-    <hyperlink ref="J66" r:id="rId122" xr:uid="{929B3257-D98E-B441-A22E-D9316946385B}"/>
-    <hyperlink ref="H67" r:id="rId123" xr:uid="{CA5B99CE-68BB-9C40-A3AA-65D006C5A0DE}"/>
-    <hyperlink ref="J67" r:id="rId124" xr:uid="{5E914B80-265A-4544-B1F8-2958C7C42F43}"/>
-    <hyperlink ref="H68" r:id="rId125" xr:uid="{B1C61BB4-0731-8D48-9B81-F9BCF87A7A13}"/>
-    <hyperlink ref="J68" r:id="rId126" xr:uid="{C51D93C2-944F-4F49-9D78-007F5369FBC6}"/>
-    <hyperlink ref="H69" r:id="rId127" xr:uid="{01A75E5D-BEDF-DE4E-B525-768C8D1D7F06}"/>
-    <hyperlink ref="J69" r:id="rId128" xr:uid="{FAEF450E-8130-DB45-9CEA-8A4EC9557F3F}"/>
-    <hyperlink ref="H70" r:id="rId129" xr:uid="{173EB2E4-15EC-B64D-9DDF-80A31A215EB2}"/>
-    <hyperlink ref="J70" r:id="rId130" xr:uid="{A6EF3DC5-EC2C-BA42-B20B-AC5693758623}"/>
-    <hyperlink ref="H71" r:id="rId131" xr:uid="{5DF5AC3B-CA3C-3B4A-BECF-7FC512415DA9}"/>
-    <hyperlink ref="J71" r:id="rId132" xr:uid="{ACAC737E-FB43-B14E-8395-2794D48351D1}"/>
-    <hyperlink ref="H72" r:id="rId133" xr:uid="{A96F0D88-68FE-7347-94A3-68205B9CF8A9}"/>
-    <hyperlink ref="J72" r:id="rId134" xr:uid="{AA1C6192-83D0-E24B-9883-787D4295B76C}"/>
-    <hyperlink ref="H73" r:id="rId135" xr:uid="{F74BD406-EAE1-8142-94AE-6AB24E2A7245}"/>
-    <hyperlink ref="J73" r:id="rId136" xr:uid="{5697E259-A89B-C542-A824-A99246C9B929}"/>
-    <hyperlink ref="H74" r:id="rId137" xr:uid="{E5A9167D-CAB7-924B-80B5-D6898E235E6A}"/>
-    <hyperlink ref="J74" r:id="rId138" xr:uid="{42F6DFE7-5275-2342-8DD7-C988B2475537}"/>
-    <hyperlink ref="H75" r:id="rId139" xr:uid="{68C6E2E6-C69E-E44B-BE12-61D0FC535123}"/>
-    <hyperlink ref="J75" r:id="rId140" xr:uid="{E27D0348-6E80-B94B-AB27-BE0DC3711BC0}"/>
-    <hyperlink ref="H76" r:id="rId141" xr:uid="{E4CD5D14-A100-744B-B615-6F9664DE2203}"/>
-    <hyperlink ref="J76" r:id="rId142" xr:uid="{27C42ED5-1A03-524A-A5B7-E6A22590E0DD}"/>
-    <hyperlink ref="H77" r:id="rId143" xr:uid="{F1701E62-4FED-144F-B397-B2644E6BB96C}"/>
-    <hyperlink ref="J77" r:id="rId144" xr:uid="{C6B08C95-223D-FB40-9FD9-E59C5BABEFD8}"/>
-    <hyperlink ref="H78" r:id="rId145" xr:uid="{72323378-F927-D44B-A395-4D90713A2F1F}"/>
-    <hyperlink ref="J78" r:id="rId146" xr:uid="{8CD56519-58DC-CA4B-8731-989EA165718B}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H21" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H22" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J22" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H23" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J24" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="H25" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="H26" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="H29" r:id="rId43" xr:uid="{E5F8D20D-EB0E-A040-9301-451EEBA6A55E}"/>
+    <hyperlink ref="J29" r:id="rId44" xr:uid="{B5D977D1-3241-184E-B459-757E17DC4DB1}"/>
+    <hyperlink ref="H30" r:id="rId45" xr:uid="{E23633FF-65E8-B749-BFA7-DCF84E078CE4}"/>
+    <hyperlink ref="J30" r:id="rId46" xr:uid="{A0F3AABA-BC37-B647-B440-F012602ED2DB}"/>
+    <hyperlink ref="H31" r:id="rId47" xr:uid="{1A5CB249-F714-9748-B92D-A05616A438E1}"/>
+    <hyperlink ref="J31" r:id="rId48" xr:uid="{42C9C207-F4ED-0245-91B1-C25CC7C44152}"/>
+    <hyperlink ref="H32" r:id="rId49" xr:uid="{C82D7159-9D3E-D444-B138-ECE63AE99721}"/>
+    <hyperlink ref="J32" r:id="rId50" xr:uid="{08775993-5ADD-1645-9A66-F496CA6B7A28}"/>
+    <hyperlink ref="H33" r:id="rId51" xr:uid="{593F3A8A-0AEB-504A-A4BB-665924FE18D8}"/>
+    <hyperlink ref="J33" r:id="rId52" xr:uid="{E5D6F428-A659-E048-9FDC-9F78A3B7B48D}"/>
+    <hyperlink ref="H34" r:id="rId53" xr:uid="{C76BE1CE-C653-7E4A-A3CA-DB0ED1C151B1}"/>
+    <hyperlink ref="J34" r:id="rId54" xr:uid="{27792CF5-37DE-1E4A-A05C-B14392618A69}"/>
+    <hyperlink ref="H35" r:id="rId55" xr:uid="{7A6086A5-7558-9941-A583-F0EB8294DBB1}"/>
+    <hyperlink ref="J35" r:id="rId56" xr:uid="{A0988048-7DFF-E945-BE05-E9106BF95B92}"/>
+    <hyperlink ref="H36" r:id="rId57" xr:uid="{8108EE16-B31E-F444-81D9-2B4A79E7175C}"/>
+    <hyperlink ref="J36" r:id="rId58" xr:uid="{B87AA8B1-8931-EA41-9937-140A18931AB5}"/>
+    <hyperlink ref="H37" r:id="rId59" xr:uid="{5BC82D23-1F71-AF45-89FB-D1ACFF4FC8B6}"/>
+    <hyperlink ref="J37" r:id="rId60" xr:uid="{8FDF43A8-0651-6041-B175-DDC630A9B906}"/>
+    <hyperlink ref="H38" r:id="rId61" xr:uid="{2B96EF4B-64DE-D848-B00A-EF825FFECDF2}"/>
+    <hyperlink ref="J38" r:id="rId62" xr:uid="{97696A61-8BC9-4D46-B269-73D40BAF3D35}"/>
+    <hyperlink ref="H39" r:id="rId63" xr:uid="{0F0327CE-3880-8545-A808-A2191AE5AF44}"/>
+    <hyperlink ref="J39" r:id="rId64" xr:uid="{977369CE-AC6A-BB4B-8022-8822B04F1635}"/>
+    <hyperlink ref="H40" r:id="rId65" xr:uid="{3C9B57FA-0D44-4D42-8949-A33F15925537}"/>
+    <hyperlink ref="J40" r:id="rId66" xr:uid="{20DC3E63-6890-7D40-9CFA-A76A52930112}"/>
+    <hyperlink ref="H41" r:id="rId67" xr:uid="{66DB3FE9-0E87-E642-8AA3-EC77FB29B727}"/>
+    <hyperlink ref="J41" r:id="rId68" xr:uid="{4435D93C-3FEE-754A-B15C-41E085563B6A}"/>
+    <hyperlink ref="H42" r:id="rId69" xr:uid="{1A0AE8B3-0C23-2D41-A8B2-5828A5F81BCF}"/>
+    <hyperlink ref="J42" r:id="rId70" xr:uid="{8360D496-8536-DE41-BF2A-7C7B6AC81189}"/>
+    <hyperlink ref="H43" r:id="rId71" xr:uid="{C05819D8-DEDF-A442-A7ED-C6322904231B}"/>
+    <hyperlink ref="J43" r:id="rId72" xr:uid="{E611B9D5-45EB-1A4A-AA78-F5794301BA8D}"/>
+    <hyperlink ref="H44" r:id="rId73" xr:uid="{F65F4782-946F-DB43-9E4A-47E5711B1BA3}"/>
+    <hyperlink ref="J44" r:id="rId74" xr:uid="{A1DBDF9A-9D85-2345-84EB-3E8FCE4EF05A}"/>
+    <hyperlink ref="H45" r:id="rId75" xr:uid="{9A9F2E1F-BC81-0E43-B4C3-485D2DDA9D4C}"/>
+    <hyperlink ref="J45" r:id="rId76" xr:uid="{6AB697FF-5F94-FE43-91B2-5A78D0102118}"/>
+    <hyperlink ref="H46" r:id="rId77" xr:uid="{8BDE2EF9-F386-7341-A357-86E3E5FD2EF9}"/>
+    <hyperlink ref="J46" r:id="rId78" xr:uid="{2847073B-A85F-AC4C-B957-EE14D213F633}"/>
+    <hyperlink ref="H47" r:id="rId79" xr:uid="{ACA1B80E-F171-DB4F-9FD5-6CD10FEE6204}"/>
+    <hyperlink ref="J47" r:id="rId80" xr:uid="{1C5AF245-A7B3-A547-96AB-7597B6C71A29}"/>
+    <hyperlink ref="H48" r:id="rId81" xr:uid="{21BDFC1E-7455-AB46-8AB0-100DAEC4DEEB}"/>
+    <hyperlink ref="J48" r:id="rId82" xr:uid="{498C59F7-F663-D94F-A767-2F30D430C4B4}"/>
+    <hyperlink ref="H49" r:id="rId83" xr:uid="{891D1943-15AC-804C-9DC0-DD742F5AD778}"/>
+    <hyperlink ref="J49" r:id="rId84" xr:uid="{B9EFC8CF-2FB6-F147-ADD0-D5E55EF83614}"/>
+    <hyperlink ref="H50" r:id="rId85" xr:uid="{CC74AF0B-DAAF-7345-AFAD-A36B8A146F09}"/>
+    <hyperlink ref="J50" r:id="rId86" xr:uid="{1A4A083A-056D-AB49-ADAA-89BC4FB14A33}"/>
+    <hyperlink ref="H51" r:id="rId87" xr:uid="{81CC28CF-BF11-EF45-A576-DEC5928ED439}"/>
+    <hyperlink ref="J51" r:id="rId88" xr:uid="{3FEF807D-650D-C54D-8B30-6D81B5DB562F}"/>
+    <hyperlink ref="H52" r:id="rId89" xr:uid="{A2F54672-5F72-774D-81F8-449FF6A8BD37}"/>
+    <hyperlink ref="J52" r:id="rId90" xr:uid="{4126D3EF-16F5-F244-96F8-B648BCE09616}"/>
+    <hyperlink ref="H53" r:id="rId91" xr:uid="{B5422E3E-E0E6-2549-B756-D87D83319F94}"/>
+    <hyperlink ref="J53" r:id="rId92" xr:uid="{BF1D94C6-BB65-A140-A516-32273E240800}"/>
+    <hyperlink ref="H54" r:id="rId93" xr:uid="{F861F128-B7B1-704C-803F-9CDC962DA7E2}"/>
+    <hyperlink ref="J54" r:id="rId94" xr:uid="{0551055D-53FE-724E-9A5B-EAA86A8E75ED}"/>
+    <hyperlink ref="H55" r:id="rId95" xr:uid="{0B5BC359-2057-4140-A984-2ABCBB2209B5}"/>
+    <hyperlink ref="J55" r:id="rId96" xr:uid="{699BAD10-6320-3141-BBA3-AC301BF3CC42}"/>
+    <hyperlink ref="H56" r:id="rId97" xr:uid="{C007D042-C228-C844-9E15-7FCA65633AD2}"/>
+    <hyperlink ref="J56" r:id="rId98" xr:uid="{F86A9BF8-AA2A-814B-811A-5A497BE9D68C}"/>
+    <hyperlink ref="H57" r:id="rId99" xr:uid="{17AE26F7-689A-364D-AC18-E4AE5FD42827}"/>
+    <hyperlink ref="J57" r:id="rId100" xr:uid="{1E0BE176-F764-0A47-8E22-14B27E03377A}"/>
+    <hyperlink ref="H58" r:id="rId101" xr:uid="{9DE861AB-AC36-DB43-926A-09E1B13F0509}"/>
+    <hyperlink ref="J58" r:id="rId102" xr:uid="{E84CA9D9-329C-6843-BF6A-B11C004C1396}"/>
+    <hyperlink ref="H59" r:id="rId103" xr:uid="{CE75FD48-5CA0-554D-8313-CED229A2797E}"/>
+    <hyperlink ref="J59" r:id="rId104" xr:uid="{FE1C4075-9293-3B45-9937-7770FB8C037A}"/>
+    <hyperlink ref="H60" r:id="rId105" xr:uid="{7D2ACD91-7A1D-224A-B773-56DD3D424A08}"/>
+    <hyperlink ref="J60" r:id="rId106" xr:uid="{6A86550A-0C93-894D-BC8C-E09CBF4473B6}"/>
+    <hyperlink ref="H61" r:id="rId107" xr:uid="{B96D75A5-270B-AF41-8AE0-EFF77354DFBC}"/>
+    <hyperlink ref="J61" r:id="rId108" xr:uid="{F45EE6D4-7E88-9442-A7B0-111954861FAE}"/>
+    <hyperlink ref="H63" r:id="rId109" xr:uid="{4315CF92-7B0D-1548-AC62-ACCAD16451ED}"/>
+    <hyperlink ref="J63" r:id="rId110" xr:uid="{427A5138-59DA-184A-A927-DBC2446ECB2C}"/>
+    <hyperlink ref="H64" r:id="rId111" xr:uid="{36AA59B1-671A-7141-ACD8-7D07AD201879}"/>
+    <hyperlink ref="J64" r:id="rId112" xr:uid="{CEAB4FB2-0B55-204A-96FE-CC2D64B5546D}"/>
+    <hyperlink ref="H65" r:id="rId113" xr:uid="{D8D18BBD-2450-8947-955A-21B9E3CEB389}"/>
+    <hyperlink ref="J65" r:id="rId114" xr:uid="{89B324E2-3691-8C43-A13F-E657F7ED8000}"/>
+    <hyperlink ref="H66" r:id="rId115" xr:uid="{409476E8-37F1-674F-B673-33F28A6518AF}"/>
+    <hyperlink ref="J66" r:id="rId116" xr:uid="{929B3257-D98E-B441-A22E-D9316946385B}"/>
+    <hyperlink ref="H67" r:id="rId117" xr:uid="{CA5B99CE-68BB-9C40-A3AA-65D006C5A0DE}"/>
+    <hyperlink ref="J67" r:id="rId118" xr:uid="{5E914B80-265A-4544-B1F8-2958C7C42F43}"/>
+    <hyperlink ref="H68" r:id="rId119" xr:uid="{B1C61BB4-0731-8D48-9B81-F9BCF87A7A13}"/>
+    <hyperlink ref="J68" r:id="rId120" xr:uid="{C51D93C2-944F-4F49-9D78-007F5369FBC6}"/>
+    <hyperlink ref="H69" r:id="rId121" xr:uid="{01A75E5D-BEDF-DE4E-B525-768C8D1D7F06}"/>
+    <hyperlink ref="J69" r:id="rId122" xr:uid="{FAEF450E-8130-DB45-9CEA-8A4EC9557F3F}"/>
+    <hyperlink ref="H70" r:id="rId123" xr:uid="{173EB2E4-15EC-B64D-9DDF-80A31A215EB2}"/>
+    <hyperlink ref="J70" r:id="rId124" xr:uid="{A6EF3DC5-EC2C-BA42-B20B-AC5693758623}"/>
+    <hyperlink ref="H71" r:id="rId125" xr:uid="{5DF5AC3B-CA3C-3B4A-BECF-7FC512415DA9}"/>
+    <hyperlink ref="J71" r:id="rId126" xr:uid="{ACAC737E-FB43-B14E-8395-2794D48351D1}"/>
+    <hyperlink ref="H72" r:id="rId127" xr:uid="{A96F0D88-68FE-7347-94A3-68205B9CF8A9}"/>
+    <hyperlink ref="J72" r:id="rId128" xr:uid="{AA1C6192-83D0-E24B-9883-787D4295B76C}"/>
+    <hyperlink ref="H73" r:id="rId129" xr:uid="{F74BD406-EAE1-8142-94AE-6AB24E2A7245}"/>
+    <hyperlink ref="J73" r:id="rId130" xr:uid="{5697E259-A89B-C542-A824-A99246C9B929}"/>
+    <hyperlink ref="H74" r:id="rId131" xr:uid="{E5A9167D-CAB7-924B-80B5-D6898E235E6A}"/>
+    <hyperlink ref="J74" r:id="rId132" xr:uid="{42F6DFE7-5275-2342-8DD7-C988B2475537}"/>
+    <hyperlink ref="H75" r:id="rId133" xr:uid="{68C6E2E6-C69E-E44B-BE12-61D0FC535123}"/>
+    <hyperlink ref="J75" r:id="rId134" xr:uid="{E27D0348-6E80-B94B-AB27-BE0DC3711BC0}"/>
+    <hyperlink ref="H76" r:id="rId135" xr:uid="{E4CD5D14-A100-744B-B615-6F9664DE2203}"/>
+    <hyperlink ref="J76" r:id="rId136" xr:uid="{27C42ED5-1A03-524A-A5B7-E6A22590E0DD}"/>
+    <hyperlink ref="H77" r:id="rId137" xr:uid="{F1701E62-4FED-144F-B397-B2644E6BB96C}"/>
+    <hyperlink ref="J77" r:id="rId138" xr:uid="{C6B08C95-223D-FB40-9FD9-E59C5BABEFD8}"/>
+    <hyperlink ref="H78" r:id="rId139" xr:uid="{72323378-F927-D44B-A395-4D90713A2F1F}"/>
+    <hyperlink ref="J78" r:id="rId140" xr:uid="{8CD56519-58DC-CA4B-8731-989EA165718B}"/>
+    <hyperlink ref="H6" r:id="rId141" xr:uid="{B7D61421-9F63-0845-A614-2DD34A3E4A83}"/>
+    <hyperlink ref="J6" r:id="rId142" xr:uid="{9D379BDC-E85B-DE42-BF3E-697A49AA0ABD}"/>
+    <hyperlink ref="H8" r:id="rId143" xr:uid="{9D53BDA9-6E62-7548-8E75-EAABFA4BA14D}"/>
+    <hyperlink ref="J7" r:id="rId144" xr:uid="{93F65C45-8A42-9245-8271-73EBD17E60E3}"/>
+    <hyperlink ref="H7" r:id="rId145" xr:uid="{1F018C1B-A36A-CA47-A249-3CA51C3F0875}"/>
+    <hyperlink ref="J8" r:id="rId146" xr:uid="{7E2B713F-5EC5-6540-909A-60571942DB19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/RTR route schedule.xlsx
+++ b/RTR route schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulcox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05768594-75E8-644B-B1AA-F6417D28D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AEF9F9-338A-794C-989C-79AD10920ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Group by 8k Route" guid="{A3DE8802-0C4D-4111-B18C-B1D760A0D2A9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{4834604E-8AB4-4512-8966-A2E345F1CB23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Group by 8k Route" guid="{A3DE8802-0C4D-4111-B18C-B1D760A0D2A9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="136">
   <si>
     <t>Week</t>
   </si>
@@ -462,30 +462,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>https://www.strava.com/routes/3384187598366849262</t>
-  </si>
-  <si>
-    <t>https://www.strava.com/routes/3383818370492484284</t>
-  </si>
-  <si>
-    <t>Withins res back via banana path</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/WRbQEkg6JrJjxrqq6</t>
-  </si>
-  <si>
-    <t>Crompton Lodges</t>
-  </si>
-  <si>
-    <t>Crompton Lodges and canal</t>
-  </si>
-  <si>
-    <t>https://www.strava.com/routes/3388939377049776708</t>
-  </si>
-  <si>
-    <t>https://www.strava.com/routes/3388940285915325570</t>
   </si>
 </sst>
 </file>
@@ -495,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -610,14 +586,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -886,11 +854,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1034,10 +1001,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1445,9 +1410,9 @@
   </sheetPr>
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1635,14 +1600,14 @@
       <c r="G6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>136</v>
+      <c r="H6" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="49" t="s">
-        <v>137</v>
+      <c r="J6" s="25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1663,16 +1628,16 @@
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="20" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1691,16 +1656,16 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="20" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1746,24 +1711,12 @@
       <c r="D10" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
@@ -1772,7 +1725,9 @@
       <c r="B11" s="21">
         <v>45904</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="D11" s="32" t="s">
         <v>123</v>
       </c>
@@ -3691,13 +3646,13 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{4834604E-8AB4-4512-8966-A2E345F1CB23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:M53" xr:uid="{3C582696-13DA-D04B-9FA2-F3EE329B51CA}"/>
+    </customSheetView>
     <customSheetView guid="{A3DE8802-0C4D-4111-B18C-B1D760A0D2A9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M53" xr:uid="{93C19DA6-A206-EE4D-961A-3396494EDE23}"/>
-    </customSheetView>
-    <customSheetView guid="{4834604E-8AB4-4512-8966-A2E345F1CB23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M53" xr:uid="{F2EBA954-5191-CE45-ACC5-229114E244B0}"/>
+      <autoFilter ref="A1:M53" xr:uid="{8E92139E-5CE7-9443-A0B1-4478BD57EA3F}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
@@ -3709,144 +3664,144 @@
     <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="H5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="J5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="J9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="J11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="J13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="J14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H15" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="J15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="H16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="J16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="H17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H18" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="H19" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="J19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="H20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="J20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="H21" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J21" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="H22" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="J22" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="H23" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J23" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="J24" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="H25" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="H26" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="J26" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="H29" r:id="rId43" xr:uid="{E5F8D20D-EB0E-A040-9301-451EEBA6A55E}"/>
-    <hyperlink ref="J29" r:id="rId44" xr:uid="{B5D977D1-3241-184E-B459-757E17DC4DB1}"/>
-    <hyperlink ref="H30" r:id="rId45" xr:uid="{E23633FF-65E8-B749-BFA7-DCF84E078CE4}"/>
-    <hyperlink ref="J30" r:id="rId46" xr:uid="{A0F3AABA-BC37-B647-B440-F012602ED2DB}"/>
-    <hyperlink ref="H31" r:id="rId47" xr:uid="{1A5CB249-F714-9748-B92D-A05616A438E1}"/>
-    <hyperlink ref="J31" r:id="rId48" xr:uid="{42C9C207-F4ED-0245-91B1-C25CC7C44152}"/>
-    <hyperlink ref="H32" r:id="rId49" xr:uid="{C82D7159-9D3E-D444-B138-ECE63AE99721}"/>
-    <hyperlink ref="J32" r:id="rId50" xr:uid="{08775993-5ADD-1645-9A66-F496CA6B7A28}"/>
-    <hyperlink ref="H33" r:id="rId51" xr:uid="{593F3A8A-0AEB-504A-A4BB-665924FE18D8}"/>
-    <hyperlink ref="J33" r:id="rId52" xr:uid="{E5D6F428-A659-E048-9FDC-9F78A3B7B48D}"/>
-    <hyperlink ref="H34" r:id="rId53" xr:uid="{C76BE1CE-C653-7E4A-A3CA-DB0ED1C151B1}"/>
-    <hyperlink ref="J34" r:id="rId54" xr:uid="{27792CF5-37DE-1E4A-A05C-B14392618A69}"/>
-    <hyperlink ref="H35" r:id="rId55" xr:uid="{7A6086A5-7558-9941-A583-F0EB8294DBB1}"/>
-    <hyperlink ref="J35" r:id="rId56" xr:uid="{A0988048-7DFF-E945-BE05-E9106BF95B92}"/>
-    <hyperlink ref="H36" r:id="rId57" xr:uid="{8108EE16-B31E-F444-81D9-2B4A79E7175C}"/>
-    <hyperlink ref="J36" r:id="rId58" xr:uid="{B87AA8B1-8931-EA41-9937-140A18931AB5}"/>
-    <hyperlink ref="H37" r:id="rId59" xr:uid="{5BC82D23-1F71-AF45-89FB-D1ACFF4FC8B6}"/>
-    <hyperlink ref="J37" r:id="rId60" xr:uid="{8FDF43A8-0651-6041-B175-DDC630A9B906}"/>
-    <hyperlink ref="H38" r:id="rId61" xr:uid="{2B96EF4B-64DE-D848-B00A-EF825FFECDF2}"/>
-    <hyperlink ref="J38" r:id="rId62" xr:uid="{97696A61-8BC9-4D46-B269-73D40BAF3D35}"/>
-    <hyperlink ref="H39" r:id="rId63" xr:uid="{0F0327CE-3880-8545-A808-A2191AE5AF44}"/>
-    <hyperlink ref="J39" r:id="rId64" xr:uid="{977369CE-AC6A-BB4B-8022-8822B04F1635}"/>
-    <hyperlink ref="H40" r:id="rId65" xr:uid="{3C9B57FA-0D44-4D42-8949-A33F15925537}"/>
-    <hyperlink ref="J40" r:id="rId66" xr:uid="{20DC3E63-6890-7D40-9CFA-A76A52930112}"/>
-    <hyperlink ref="H41" r:id="rId67" xr:uid="{66DB3FE9-0E87-E642-8AA3-EC77FB29B727}"/>
-    <hyperlink ref="J41" r:id="rId68" xr:uid="{4435D93C-3FEE-754A-B15C-41E085563B6A}"/>
-    <hyperlink ref="H42" r:id="rId69" xr:uid="{1A0AE8B3-0C23-2D41-A8B2-5828A5F81BCF}"/>
-    <hyperlink ref="J42" r:id="rId70" xr:uid="{8360D496-8536-DE41-BF2A-7C7B6AC81189}"/>
-    <hyperlink ref="H43" r:id="rId71" xr:uid="{C05819D8-DEDF-A442-A7ED-C6322904231B}"/>
-    <hyperlink ref="J43" r:id="rId72" xr:uid="{E611B9D5-45EB-1A4A-AA78-F5794301BA8D}"/>
-    <hyperlink ref="H44" r:id="rId73" xr:uid="{F65F4782-946F-DB43-9E4A-47E5711B1BA3}"/>
-    <hyperlink ref="J44" r:id="rId74" xr:uid="{A1DBDF9A-9D85-2345-84EB-3E8FCE4EF05A}"/>
-    <hyperlink ref="H45" r:id="rId75" xr:uid="{9A9F2E1F-BC81-0E43-B4C3-485D2DDA9D4C}"/>
-    <hyperlink ref="J45" r:id="rId76" xr:uid="{6AB697FF-5F94-FE43-91B2-5A78D0102118}"/>
-    <hyperlink ref="H46" r:id="rId77" xr:uid="{8BDE2EF9-F386-7341-A357-86E3E5FD2EF9}"/>
-    <hyperlink ref="J46" r:id="rId78" xr:uid="{2847073B-A85F-AC4C-B957-EE14D213F633}"/>
-    <hyperlink ref="H47" r:id="rId79" xr:uid="{ACA1B80E-F171-DB4F-9FD5-6CD10FEE6204}"/>
-    <hyperlink ref="J47" r:id="rId80" xr:uid="{1C5AF245-A7B3-A547-96AB-7597B6C71A29}"/>
-    <hyperlink ref="H48" r:id="rId81" xr:uid="{21BDFC1E-7455-AB46-8AB0-100DAEC4DEEB}"/>
-    <hyperlink ref="J48" r:id="rId82" xr:uid="{498C59F7-F663-D94F-A767-2F30D430C4B4}"/>
-    <hyperlink ref="H49" r:id="rId83" xr:uid="{891D1943-15AC-804C-9DC0-DD742F5AD778}"/>
-    <hyperlink ref="J49" r:id="rId84" xr:uid="{B9EFC8CF-2FB6-F147-ADD0-D5E55EF83614}"/>
-    <hyperlink ref="H50" r:id="rId85" xr:uid="{CC74AF0B-DAAF-7345-AFAD-A36B8A146F09}"/>
-    <hyperlink ref="J50" r:id="rId86" xr:uid="{1A4A083A-056D-AB49-ADAA-89BC4FB14A33}"/>
-    <hyperlink ref="H51" r:id="rId87" xr:uid="{81CC28CF-BF11-EF45-A576-DEC5928ED439}"/>
-    <hyperlink ref="J51" r:id="rId88" xr:uid="{3FEF807D-650D-C54D-8B30-6D81B5DB562F}"/>
-    <hyperlink ref="H52" r:id="rId89" xr:uid="{A2F54672-5F72-774D-81F8-449FF6A8BD37}"/>
-    <hyperlink ref="J52" r:id="rId90" xr:uid="{4126D3EF-16F5-F244-96F8-B648BCE09616}"/>
-    <hyperlink ref="H53" r:id="rId91" xr:uid="{B5422E3E-E0E6-2549-B756-D87D83319F94}"/>
-    <hyperlink ref="J53" r:id="rId92" xr:uid="{BF1D94C6-BB65-A140-A516-32273E240800}"/>
-    <hyperlink ref="H54" r:id="rId93" xr:uid="{F861F128-B7B1-704C-803F-9CDC962DA7E2}"/>
-    <hyperlink ref="J54" r:id="rId94" xr:uid="{0551055D-53FE-724E-9A5B-EAA86A8E75ED}"/>
-    <hyperlink ref="H55" r:id="rId95" xr:uid="{0B5BC359-2057-4140-A984-2ABCBB2209B5}"/>
-    <hyperlink ref="J55" r:id="rId96" xr:uid="{699BAD10-6320-3141-BBA3-AC301BF3CC42}"/>
-    <hyperlink ref="H56" r:id="rId97" xr:uid="{C007D042-C228-C844-9E15-7FCA65633AD2}"/>
-    <hyperlink ref="J56" r:id="rId98" xr:uid="{F86A9BF8-AA2A-814B-811A-5A497BE9D68C}"/>
-    <hyperlink ref="H57" r:id="rId99" xr:uid="{17AE26F7-689A-364D-AC18-E4AE5FD42827}"/>
-    <hyperlink ref="J57" r:id="rId100" xr:uid="{1E0BE176-F764-0A47-8E22-14B27E03377A}"/>
-    <hyperlink ref="H58" r:id="rId101" xr:uid="{9DE861AB-AC36-DB43-926A-09E1B13F0509}"/>
-    <hyperlink ref="J58" r:id="rId102" xr:uid="{E84CA9D9-329C-6843-BF6A-B11C004C1396}"/>
-    <hyperlink ref="H59" r:id="rId103" xr:uid="{CE75FD48-5CA0-554D-8313-CED229A2797E}"/>
-    <hyperlink ref="J59" r:id="rId104" xr:uid="{FE1C4075-9293-3B45-9937-7770FB8C037A}"/>
-    <hyperlink ref="H60" r:id="rId105" xr:uid="{7D2ACD91-7A1D-224A-B773-56DD3D424A08}"/>
-    <hyperlink ref="J60" r:id="rId106" xr:uid="{6A86550A-0C93-894D-BC8C-E09CBF4473B6}"/>
-    <hyperlink ref="H61" r:id="rId107" xr:uid="{B96D75A5-270B-AF41-8AE0-EFF77354DFBC}"/>
-    <hyperlink ref="J61" r:id="rId108" xr:uid="{F45EE6D4-7E88-9442-A7B0-111954861FAE}"/>
-    <hyperlink ref="H63" r:id="rId109" xr:uid="{4315CF92-7B0D-1548-AC62-ACCAD16451ED}"/>
-    <hyperlink ref="J63" r:id="rId110" xr:uid="{427A5138-59DA-184A-A927-DBC2446ECB2C}"/>
-    <hyperlink ref="H64" r:id="rId111" xr:uid="{36AA59B1-671A-7141-ACD8-7D07AD201879}"/>
-    <hyperlink ref="J64" r:id="rId112" xr:uid="{CEAB4FB2-0B55-204A-96FE-CC2D64B5546D}"/>
-    <hyperlink ref="H65" r:id="rId113" xr:uid="{D8D18BBD-2450-8947-955A-21B9E3CEB389}"/>
-    <hyperlink ref="J65" r:id="rId114" xr:uid="{89B324E2-3691-8C43-A13F-E657F7ED8000}"/>
-    <hyperlink ref="H66" r:id="rId115" xr:uid="{409476E8-37F1-674F-B673-33F28A6518AF}"/>
-    <hyperlink ref="J66" r:id="rId116" xr:uid="{929B3257-D98E-B441-A22E-D9316946385B}"/>
-    <hyperlink ref="H67" r:id="rId117" xr:uid="{CA5B99CE-68BB-9C40-A3AA-65D006C5A0DE}"/>
-    <hyperlink ref="J67" r:id="rId118" xr:uid="{5E914B80-265A-4544-B1F8-2958C7C42F43}"/>
-    <hyperlink ref="H68" r:id="rId119" xr:uid="{B1C61BB4-0731-8D48-9B81-F9BCF87A7A13}"/>
-    <hyperlink ref="J68" r:id="rId120" xr:uid="{C51D93C2-944F-4F49-9D78-007F5369FBC6}"/>
-    <hyperlink ref="H69" r:id="rId121" xr:uid="{01A75E5D-BEDF-DE4E-B525-768C8D1D7F06}"/>
-    <hyperlink ref="J69" r:id="rId122" xr:uid="{FAEF450E-8130-DB45-9CEA-8A4EC9557F3F}"/>
-    <hyperlink ref="H70" r:id="rId123" xr:uid="{173EB2E4-15EC-B64D-9DDF-80A31A215EB2}"/>
-    <hyperlink ref="J70" r:id="rId124" xr:uid="{A6EF3DC5-EC2C-BA42-B20B-AC5693758623}"/>
-    <hyperlink ref="H71" r:id="rId125" xr:uid="{5DF5AC3B-CA3C-3B4A-BECF-7FC512415DA9}"/>
-    <hyperlink ref="J71" r:id="rId126" xr:uid="{ACAC737E-FB43-B14E-8395-2794D48351D1}"/>
-    <hyperlink ref="H72" r:id="rId127" xr:uid="{A96F0D88-68FE-7347-94A3-68205B9CF8A9}"/>
-    <hyperlink ref="J72" r:id="rId128" xr:uid="{AA1C6192-83D0-E24B-9883-787D4295B76C}"/>
-    <hyperlink ref="H73" r:id="rId129" xr:uid="{F74BD406-EAE1-8142-94AE-6AB24E2A7245}"/>
-    <hyperlink ref="J73" r:id="rId130" xr:uid="{5697E259-A89B-C542-A824-A99246C9B929}"/>
-    <hyperlink ref="H74" r:id="rId131" xr:uid="{E5A9167D-CAB7-924B-80B5-D6898E235E6A}"/>
-    <hyperlink ref="J74" r:id="rId132" xr:uid="{42F6DFE7-5275-2342-8DD7-C988B2475537}"/>
-    <hyperlink ref="H75" r:id="rId133" xr:uid="{68C6E2E6-C69E-E44B-BE12-61D0FC535123}"/>
-    <hyperlink ref="J75" r:id="rId134" xr:uid="{E27D0348-6E80-B94B-AB27-BE0DC3711BC0}"/>
-    <hyperlink ref="H76" r:id="rId135" xr:uid="{E4CD5D14-A100-744B-B615-6F9664DE2203}"/>
-    <hyperlink ref="J76" r:id="rId136" xr:uid="{27C42ED5-1A03-524A-A5B7-E6A22590E0DD}"/>
-    <hyperlink ref="H77" r:id="rId137" xr:uid="{F1701E62-4FED-144F-B397-B2644E6BB96C}"/>
-    <hyperlink ref="J77" r:id="rId138" xr:uid="{C6B08C95-223D-FB40-9FD9-E59C5BABEFD8}"/>
-    <hyperlink ref="H78" r:id="rId139" xr:uid="{72323378-F927-D44B-A395-4D90713A2F1F}"/>
-    <hyperlink ref="J78" r:id="rId140" xr:uid="{8CD56519-58DC-CA4B-8731-989EA165718B}"/>
-    <hyperlink ref="H6" r:id="rId141" xr:uid="{B7D61421-9F63-0845-A614-2DD34A3E4A83}"/>
-    <hyperlink ref="J6" r:id="rId142" xr:uid="{9D379BDC-E85B-DE42-BF3E-697A49AA0ABD}"/>
-    <hyperlink ref="H8" r:id="rId143" xr:uid="{9D53BDA9-6E62-7548-8E75-EAABFA4BA14D}"/>
-    <hyperlink ref="J7" r:id="rId144" xr:uid="{93F65C45-8A42-9245-8271-73EBD17E60E3}"/>
-    <hyperlink ref="H7" r:id="rId145" xr:uid="{1F018C1B-A36A-CA47-A249-3CA51C3F0875}"/>
-    <hyperlink ref="J8" r:id="rId146" xr:uid="{7E2B713F-5EC5-6540-909A-60571942DB19}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="H15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="H16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="H17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="H19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="H20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="H21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="H22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="H23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="H24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="H25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="H26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="H29" r:id="rId49" xr:uid="{E5F8D20D-EB0E-A040-9301-451EEBA6A55E}"/>
+    <hyperlink ref="J29" r:id="rId50" xr:uid="{B5D977D1-3241-184E-B459-757E17DC4DB1}"/>
+    <hyperlink ref="H30" r:id="rId51" xr:uid="{E23633FF-65E8-B749-BFA7-DCF84E078CE4}"/>
+    <hyperlink ref="J30" r:id="rId52" xr:uid="{A0F3AABA-BC37-B647-B440-F012602ED2DB}"/>
+    <hyperlink ref="H31" r:id="rId53" xr:uid="{1A5CB249-F714-9748-B92D-A05616A438E1}"/>
+    <hyperlink ref="J31" r:id="rId54" xr:uid="{42C9C207-F4ED-0245-91B1-C25CC7C44152}"/>
+    <hyperlink ref="H32" r:id="rId55" xr:uid="{C82D7159-9D3E-D444-B138-ECE63AE99721}"/>
+    <hyperlink ref="J32" r:id="rId56" xr:uid="{08775993-5ADD-1645-9A66-F496CA6B7A28}"/>
+    <hyperlink ref="H33" r:id="rId57" xr:uid="{593F3A8A-0AEB-504A-A4BB-665924FE18D8}"/>
+    <hyperlink ref="J33" r:id="rId58" xr:uid="{E5D6F428-A659-E048-9FDC-9F78A3B7B48D}"/>
+    <hyperlink ref="H34" r:id="rId59" xr:uid="{C76BE1CE-C653-7E4A-A3CA-DB0ED1C151B1}"/>
+    <hyperlink ref="J34" r:id="rId60" xr:uid="{27792CF5-37DE-1E4A-A05C-B14392618A69}"/>
+    <hyperlink ref="H35" r:id="rId61" xr:uid="{7A6086A5-7558-9941-A583-F0EB8294DBB1}"/>
+    <hyperlink ref="J35" r:id="rId62" xr:uid="{A0988048-7DFF-E945-BE05-E9106BF95B92}"/>
+    <hyperlink ref="H36" r:id="rId63" xr:uid="{8108EE16-B31E-F444-81D9-2B4A79E7175C}"/>
+    <hyperlink ref="J36" r:id="rId64" xr:uid="{B87AA8B1-8931-EA41-9937-140A18931AB5}"/>
+    <hyperlink ref="H37" r:id="rId65" xr:uid="{5BC82D23-1F71-AF45-89FB-D1ACFF4FC8B6}"/>
+    <hyperlink ref="J37" r:id="rId66" xr:uid="{8FDF43A8-0651-6041-B175-DDC630A9B906}"/>
+    <hyperlink ref="H38" r:id="rId67" xr:uid="{2B96EF4B-64DE-D848-B00A-EF825FFECDF2}"/>
+    <hyperlink ref="J38" r:id="rId68" xr:uid="{97696A61-8BC9-4D46-B269-73D40BAF3D35}"/>
+    <hyperlink ref="H39" r:id="rId69" xr:uid="{0F0327CE-3880-8545-A808-A2191AE5AF44}"/>
+    <hyperlink ref="J39" r:id="rId70" xr:uid="{977369CE-AC6A-BB4B-8022-8822B04F1635}"/>
+    <hyperlink ref="H40" r:id="rId71" xr:uid="{3C9B57FA-0D44-4D42-8949-A33F15925537}"/>
+    <hyperlink ref="J40" r:id="rId72" xr:uid="{20DC3E63-6890-7D40-9CFA-A76A52930112}"/>
+    <hyperlink ref="H41" r:id="rId73" xr:uid="{66DB3FE9-0E87-E642-8AA3-EC77FB29B727}"/>
+    <hyperlink ref="J41" r:id="rId74" xr:uid="{4435D93C-3FEE-754A-B15C-41E085563B6A}"/>
+    <hyperlink ref="H42" r:id="rId75" xr:uid="{1A0AE8B3-0C23-2D41-A8B2-5828A5F81BCF}"/>
+    <hyperlink ref="J42" r:id="rId76" xr:uid="{8360D496-8536-DE41-BF2A-7C7B6AC81189}"/>
+    <hyperlink ref="H43" r:id="rId77" xr:uid="{C05819D8-DEDF-A442-A7ED-C6322904231B}"/>
+    <hyperlink ref="J43" r:id="rId78" xr:uid="{E611B9D5-45EB-1A4A-AA78-F5794301BA8D}"/>
+    <hyperlink ref="H44" r:id="rId79" xr:uid="{F65F4782-946F-DB43-9E4A-47E5711B1BA3}"/>
+    <hyperlink ref="J44" r:id="rId80" xr:uid="{A1DBDF9A-9D85-2345-84EB-3E8FCE4EF05A}"/>
+    <hyperlink ref="H45" r:id="rId81" xr:uid="{9A9F2E1F-BC81-0E43-B4C3-485D2DDA9D4C}"/>
+    <hyperlink ref="J45" r:id="rId82" xr:uid="{6AB697FF-5F94-FE43-91B2-5A78D0102118}"/>
+    <hyperlink ref="H46" r:id="rId83" xr:uid="{8BDE2EF9-F386-7341-A357-86E3E5FD2EF9}"/>
+    <hyperlink ref="J46" r:id="rId84" xr:uid="{2847073B-A85F-AC4C-B957-EE14D213F633}"/>
+    <hyperlink ref="H47" r:id="rId85" xr:uid="{ACA1B80E-F171-DB4F-9FD5-6CD10FEE6204}"/>
+    <hyperlink ref="J47" r:id="rId86" xr:uid="{1C5AF245-A7B3-A547-96AB-7597B6C71A29}"/>
+    <hyperlink ref="H48" r:id="rId87" xr:uid="{21BDFC1E-7455-AB46-8AB0-100DAEC4DEEB}"/>
+    <hyperlink ref="J48" r:id="rId88" xr:uid="{498C59F7-F663-D94F-A767-2F30D430C4B4}"/>
+    <hyperlink ref="H49" r:id="rId89" xr:uid="{891D1943-15AC-804C-9DC0-DD742F5AD778}"/>
+    <hyperlink ref="J49" r:id="rId90" xr:uid="{B9EFC8CF-2FB6-F147-ADD0-D5E55EF83614}"/>
+    <hyperlink ref="H50" r:id="rId91" xr:uid="{CC74AF0B-DAAF-7345-AFAD-A36B8A146F09}"/>
+    <hyperlink ref="J50" r:id="rId92" xr:uid="{1A4A083A-056D-AB49-ADAA-89BC4FB14A33}"/>
+    <hyperlink ref="H51" r:id="rId93" xr:uid="{81CC28CF-BF11-EF45-A576-DEC5928ED439}"/>
+    <hyperlink ref="J51" r:id="rId94" xr:uid="{3FEF807D-650D-C54D-8B30-6D81B5DB562F}"/>
+    <hyperlink ref="H52" r:id="rId95" xr:uid="{A2F54672-5F72-774D-81F8-449FF6A8BD37}"/>
+    <hyperlink ref="J52" r:id="rId96" xr:uid="{4126D3EF-16F5-F244-96F8-B648BCE09616}"/>
+    <hyperlink ref="H53" r:id="rId97" xr:uid="{B5422E3E-E0E6-2549-B756-D87D83319F94}"/>
+    <hyperlink ref="J53" r:id="rId98" xr:uid="{BF1D94C6-BB65-A140-A516-32273E240800}"/>
+    <hyperlink ref="H54" r:id="rId99" xr:uid="{F861F128-B7B1-704C-803F-9CDC962DA7E2}"/>
+    <hyperlink ref="J54" r:id="rId100" xr:uid="{0551055D-53FE-724E-9A5B-EAA86A8E75ED}"/>
+    <hyperlink ref="H55" r:id="rId101" xr:uid="{0B5BC359-2057-4140-A984-2ABCBB2209B5}"/>
+    <hyperlink ref="J55" r:id="rId102" xr:uid="{699BAD10-6320-3141-BBA3-AC301BF3CC42}"/>
+    <hyperlink ref="H56" r:id="rId103" xr:uid="{C007D042-C228-C844-9E15-7FCA65633AD2}"/>
+    <hyperlink ref="J56" r:id="rId104" xr:uid="{F86A9BF8-AA2A-814B-811A-5A497BE9D68C}"/>
+    <hyperlink ref="H57" r:id="rId105" xr:uid="{17AE26F7-689A-364D-AC18-E4AE5FD42827}"/>
+    <hyperlink ref="J57" r:id="rId106" xr:uid="{1E0BE176-F764-0A47-8E22-14B27E03377A}"/>
+    <hyperlink ref="H58" r:id="rId107" xr:uid="{9DE861AB-AC36-DB43-926A-09E1B13F0509}"/>
+    <hyperlink ref="J58" r:id="rId108" xr:uid="{E84CA9D9-329C-6843-BF6A-B11C004C1396}"/>
+    <hyperlink ref="H59" r:id="rId109" xr:uid="{CE75FD48-5CA0-554D-8313-CED229A2797E}"/>
+    <hyperlink ref="J59" r:id="rId110" xr:uid="{FE1C4075-9293-3B45-9937-7770FB8C037A}"/>
+    <hyperlink ref="H60" r:id="rId111" xr:uid="{7D2ACD91-7A1D-224A-B773-56DD3D424A08}"/>
+    <hyperlink ref="J60" r:id="rId112" xr:uid="{6A86550A-0C93-894D-BC8C-E09CBF4473B6}"/>
+    <hyperlink ref="H61" r:id="rId113" xr:uid="{B96D75A5-270B-AF41-8AE0-EFF77354DFBC}"/>
+    <hyperlink ref="J61" r:id="rId114" xr:uid="{F45EE6D4-7E88-9442-A7B0-111954861FAE}"/>
+    <hyperlink ref="H63" r:id="rId115" xr:uid="{4315CF92-7B0D-1548-AC62-ACCAD16451ED}"/>
+    <hyperlink ref="J63" r:id="rId116" xr:uid="{427A5138-59DA-184A-A927-DBC2446ECB2C}"/>
+    <hyperlink ref="H64" r:id="rId117" xr:uid="{36AA59B1-671A-7141-ACD8-7D07AD201879}"/>
+    <hyperlink ref="J64" r:id="rId118" xr:uid="{CEAB4FB2-0B55-204A-96FE-CC2D64B5546D}"/>
+    <hyperlink ref="H65" r:id="rId119" xr:uid="{D8D18BBD-2450-8947-955A-21B9E3CEB389}"/>
+    <hyperlink ref="J65" r:id="rId120" xr:uid="{89B324E2-3691-8C43-A13F-E657F7ED8000}"/>
+    <hyperlink ref="H66" r:id="rId121" xr:uid="{409476E8-37F1-674F-B673-33F28A6518AF}"/>
+    <hyperlink ref="J66" r:id="rId122" xr:uid="{929B3257-D98E-B441-A22E-D9316946385B}"/>
+    <hyperlink ref="H67" r:id="rId123" xr:uid="{CA5B99CE-68BB-9C40-A3AA-65D006C5A0DE}"/>
+    <hyperlink ref="J67" r:id="rId124" xr:uid="{5E914B80-265A-4544-B1F8-2958C7C42F43}"/>
+    <hyperlink ref="H68" r:id="rId125" xr:uid="{B1C61BB4-0731-8D48-9B81-F9BCF87A7A13}"/>
+    <hyperlink ref="J68" r:id="rId126" xr:uid="{C51D93C2-944F-4F49-9D78-007F5369FBC6}"/>
+    <hyperlink ref="H69" r:id="rId127" xr:uid="{01A75E5D-BEDF-DE4E-B525-768C8D1D7F06}"/>
+    <hyperlink ref="J69" r:id="rId128" xr:uid="{FAEF450E-8130-DB45-9CEA-8A4EC9557F3F}"/>
+    <hyperlink ref="H70" r:id="rId129" xr:uid="{173EB2E4-15EC-B64D-9DDF-80A31A215EB2}"/>
+    <hyperlink ref="J70" r:id="rId130" xr:uid="{A6EF3DC5-EC2C-BA42-B20B-AC5693758623}"/>
+    <hyperlink ref="H71" r:id="rId131" xr:uid="{5DF5AC3B-CA3C-3B4A-BECF-7FC512415DA9}"/>
+    <hyperlink ref="J71" r:id="rId132" xr:uid="{ACAC737E-FB43-B14E-8395-2794D48351D1}"/>
+    <hyperlink ref="H72" r:id="rId133" xr:uid="{A96F0D88-68FE-7347-94A3-68205B9CF8A9}"/>
+    <hyperlink ref="J72" r:id="rId134" xr:uid="{AA1C6192-83D0-E24B-9883-787D4295B76C}"/>
+    <hyperlink ref="H73" r:id="rId135" xr:uid="{F74BD406-EAE1-8142-94AE-6AB24E2A7245}"/>
+    <hyperlink ref="J73" r:id="rId136" xr:uid="{5697E259-A89B-C542-A824-A99246C9B929}"/>
+    <hyperlink ref="H74" r:id="rId137" xr:uid="{E5A9167D-CAB7-924B-80B5-D6898E235E6A}"/>
+    <hyperlink ref="J74" r:id="rId138" xr:uid="{42F6DFE7-5275-2342-8DD7-C988B2475537}"/>
+    <hyperlink ref="H75" r:id="rId139" xr:uid="{68C6E2E6-C69E-E44B-BE12-61D0FC535123}"/>
+    <hyperlink ref="J75" r:id="rId140" xr:uid="{E27D0348-6E80-B94B-AB27-BE0DC3711BC0}"/>
+    <hyperlink ref="H76" r:id="rId141" xr:uid="{E4CD5D14-A100-744B-B615-6F9664DE2203}"/>
+    <hyperlink ref="J76" r:id="rId142" xr:uid="{27C42ED5-1A03-524A-A5B7-E6A22590E0DD}"/>
+    <hyperlink ref="H77" r:id="rId143" xr:uid="{F1701E62-4FED-144F-B397-B2644E6BB96C}"/>
+    <hyperlink ref="J77" r:id="rId144" xr:uid="{C6B08C95-223D-FB40-9FD9-E59C5BABEFD8}"/>
+    <hyperlink ref="H78" r:id="rId145" xr:uid="{72323378-F927-D44B-A395-4D90713A2F1F}"/>
+    <hyperlink ref="J78" r:id="rId146" xr:uid="{8CD56519-58DC-CA4B-8731-989EA165718B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
